--- a/datasets/things.xlsx
+++ b/datasets/things.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,39 @@
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>59b5afaa-3f00-4f55-b771-5dd40fea1b69</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>12/10/2022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Experience</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Experience</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>work experience</t>
         </is>
       </c>
     </row>
@@ -472,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -606,20 +639,14 @@
           <t>types</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -638,17 +665,43 @@
           <t>name</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>

--- a/datasets/things.xlsx
+++ b/datasets/things.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,6 +491,34 @@
       <c r="F2" t="inlineStr">
         <is>
           <t>work experience</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>b979ba9a-87ca-4b10-9b53-48dd201ed68a</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>01/02/2023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Xmas 2022</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Xmas 2022</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Xmas vacation 2022</t>
         </is>
       </c>
     </row>
@@ -691,20 +719,14 @@
           <t>description</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
